--- a/src/CRUDOperationAPI/wwwroot/ExportEmployeeSchedule.xlsx
+++ b/src/CRUDOperationAPI/wwwroot/ExportEmployeeSchedule.xlsx
@@ -10,6 +10,8 @@
     <sheet name="EmployeeSchedule 30" sheetId="3" r:id="rId4"/>
     <sheet name="EmployeeSchedule 30-12-YYYY" sheetId="4" r:id="rId5"/>
     <sheet name="EmployeeSchedule 30-12-2019" sheetId="5" r:id="rId6"/>
+    <sheet name="EmployeeSchedule 06-01-2020" sheetId="6" r:id="rId7"/>
+    <sheet name="EmployeeSchedule 07-01-2020" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -292,4 +294,1262 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0">
+        <v>73</v>
+      </c>
+      <c r="C2" s="0">
+        <v>43836.5144929977</v>
+      </c>
+      <c r="D2" s="0">
+        <v>43836.5148178472</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.000324849537037037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0">
+        <v>43836.5172202315</v>
+      </c>
+      <c r="D3" s="0">
+        <v>43836.5432565741</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.0260363310185185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>37</v>
+      </c>
+      <c r="B4" s="0">
+        <v>45</v>
+      </c>
+      <c r="C4" s="0">
+        <v>43836.5179073611</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0">
+        <v>73</v>
+      </c>
+      <c r="C5" s="0">
+        <v>43836.5218133912</v>
+      </c>
+      <c r="D5" s="0">
+        <v>43836.5235506481</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.00173724537037037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0">
+        <v>73</v>
+      </c>
+      <c r="C6" s="0">
+        <v>43836.5242030324</v>
+      </c>
+      <c r="D6" s="0">
+        <v>43836.524228912</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2.58796296296296E-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" s="0">
+        <v>73</v>
+      </c>
+      <c r="C7" s="0">
+        <v>43836.5258499421</v>
+      </c>
+      <c r="D7" s="0">
+        <v>43836.5258767361</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2.67939814814815E-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" s="0">
+        <v>73</v>
+      </c>
+      <c r="C8" s="0">
+        <v>43836.5260577431</v>
+      </c>
+      <c r="D8" s="0">
+        <v>43836.5261094329</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5.16782407407407E-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>42</v>
+      </c>
+      <c r="B9" s="0">
+        <v>73</v>
+      </c>
+      <c r="C9" s="0">
+        <v>43836.526353044</v>
+      </c>
+      <c r="D9" s="0">
+        <v>43836.5263825116</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2.94560185185185E-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>73</v>
+      </c>
+      <c r="C10" s="0">
+        <v>43836.5268329051</v>
+      </c>
+      <c r="D10" s="0">
+        <v>43836.5268611343</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2.82291666666667E-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0">
+        <v>73</v>
+      </c>
+      <c r="C11" s="0">
+        <v>43836.5279160069</v>
+      </c>
+      <c r="D11" s="0">
+        <v>43836.5279380093</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2.19907407407407E-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0">
+        <v>73</v>
+      </c>
+      <c r="C12" s="0">
+        <v>43836.5285493403</v>
+      </c>
+      <c r="D12" s="0">
+        <v>43836.5290191435</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.000469803240740741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0">
+        <v>43836.5306107407</v>
+      </c>
+      <c r="D13" s="0">
+        <v>43836.5317710417</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.00116030092592593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0">
+        <v>43836.5319869329</v>
+      </c>
+      <c r="D14" s="0">
+        <v>43836.5331957986</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.00120886574074074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0">
+        <v>73</v>
+      </c>
+      <c r="C15" s="0">
+        <v>43836.5333047222</v>
+      </c>
+      <c r="D15" s="0">
+        <v>43836.5349861227</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.00168138888888889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0">
+        <v>43836.5350828588</v>
+      </c>
+      <c r="D16" s="0">
+        <v>43836.5351361343</v>
+      </c>
+      <c r="E16" s="0">
+        <v>5.32638888888889E-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>50</v>
+      </c>
+      <c r="B17" s="0">
+        <v>73</v>
+      </c>
+      <c r="C17" s="0">
+        <v>43836.5353505556</v>
+      </c>
+      <c r="D17" s="0">
+        <v>43836.5357089352</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.00035837962962963</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0">
+        <v>73</v>
+      </c>
+      <c r="C18" s="0">
+        <v>43836.5358009028</v>
+      </c>
+      <c r="D18" s="0">
+        <v>43836.5358991204</v>
+      </c>
+      <c r="E18" s="0">
+        <v>9.82060185185185E-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>52</v>
+      </c>
+      <c r="B19" s="0">
+        <v>73</v>
+      </c>
+      <c r="C19" s="0">
+        <v>43836.5360455208</v>
+      </c>
+      <c r="D19" s="0">
+        <v>43836.5361072454</v>
+      </c>
+      <c r="E19" s="0">
+        <v>6.1712962962963E-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>53</v>
+      </c>
+      <c r="B20" s="0">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0">
+        <v>43836.5361653356</v>
+      </c>
+      <c r="D20" s="0">
+        <v>43836.5363397569</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.000174409722222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" s="0">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0">
+        <v>43836.5373989005</v>
+      </c>
+      <c r="D21" s="0">
+        <v>43836.5402676968</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.0028687962962963</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>55</v>
+      </c>
+      <c r="B22" s="0">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0">
+        <v>43836.540337338</v>
+      </c>
+      <c r="D22" s="0">
+        <v>43836.5405914005</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.000254050925925926</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>56</v>
+      </c>
+      <c r="B23" s="0">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0">
+        <v>43836.5751126968</v>
+      </c>
+      <c r="D23" s="0">
+        <v>43836.6316874074</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.0565747106481481</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>57</v>
+      </c>
+      <c r="B24" s="0">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0">
+        <v>43836.6317567708</v>
+      </c>
+      <c r="D24" s="0">
+        <v>43836.7093224769</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.0775656944444444</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>58</v>
+      </c>
+      <c r="B25" s="0">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0">
+        <v>43836.7094543287</v>
+      </c>
+      <c r="D25" s="0">
+        <v>43836.7098433333</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.00038900462962963</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0">
+        <v>43836.7099165972</v>
+      </c>
+      <c r="D26" s="0">
+        <v>43836.7101874884</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.000270891203703704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>60</v>
+      </c>
+      <c r="B27" s="0">
+        <v>73</v>
+      </c>
+      <c r="C27" s="0">
+        <v>43836.7104283796</v>
+      </c>
+      <c r="D27" s="0">
+        <v>43836.7116334028</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.00120502314814815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>61</v>
+      </c>
+      <c r="B28" s="0">
+        <v>73</v>
+      </c>
+      <c r="C28" s="0">
+        <v>43836.7117113889</v>
+      </c>
+      <c r="D28" s="0">
+        <v>43836.7117406829</v>
+      </c>
+      <c r="E28" s="0">
+        <v>2.92939814814815E-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>62</v>
+      </c>
+      <c r="B29" s="0">
+        <v>73</v>
+      </c>
+      <c r="C29" s="0">
+        <v>43836.7117990625</v>
+      </c>
+      <c r="D29" s="0">
+        <v>43836.7120742824</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.000275208333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>63</v>
+      </c>
+      <c r="B30" s="0">
+        <v>73</v>
+      </c>
+      <c r="C30" s="0">
+        <v>43836.7121427546</v>
+      </c>
+      <c r="D30" s="0">
+        <v>43836.7141584259</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.00201565972222222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>64</v>
+      </c>
+      <c r="B31" s="0">
+        <v>73</v>
+      </c>
+      <c r="C31" s="0">
+        <v>43836.7149510069</v>
+      </c>
+      <c r="D31" s="0">
+        <v>43836.7150740972</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.000123090277777778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>65</v>
+      </c>
+      <c r="B32" s="0">
+        <v>73</v>
+      </c>
+      <c r="C32" s="0">
+        <v>43836.7151716898</v>
+      </c>
+      <c r="D32" s="0">
+        <v>43836.7152674421</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9.57523148148148E-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>66</v>
+      </c>
+      <c r="B33" s="0">
+        <v>73</v>
+      </c>
+      <c r="C33" s="0">
+        <v>43836.7154537616</v>
+      </c>
+      <c r="D33" s="0">
+        <v>43836.7161826852</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.000728912037037037</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>67</v>
+      </c>
+      <c r="B34" s="0">
+        <v>73</v>
+      </c>
+      <c r="C34" s="0">
+        <v>43836.7163547454</v>
+      </c>
+      <c r="D34" s="0">
+        <v>43836.7164427083</v>
+      </c>
+      <c r="E34" s="0">
+        <v>8.79513888888889E-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0">
+        <v>73</v>
+      </c>
+      <c r="C35" s="0">
+        <v>43836.7164957639</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0">
+        <v>73</v>
+      </c>
+      <c r="C2" s="0">
+        <v>43836.5144929977</v>
+      </c>
+      <c r="D2" s="0">
+        <v>43836.5148178472</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.000324849537037037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0">
+        <v>43836.5172202315</v>
+      </c>
+      <c r="D3" s="0">
+        <v>43836.5432565741</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.0260363310185185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>37</v>
+      </c>
+      <c r="B4" s="0">
+        <v>45</v>
+      </c>
+      <c r="C4" s="0">
+        <v>43836.5179073611</v>
+      </c>
+      <c r="D4" s="0">
+        <v>43836.7351013194</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.217193958333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0">
+        <v>73</v>
+      </c>
+      <c r="C5" s="0">
+        <v>43836.5218133912</v>
+      </c>
+      <c r="D5" s="0">
+        <v>43836.5235506481</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.00173724537037037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0">
+        <v>73</v>
+      </c>
+      <c r="C6" s="0">
+        <v>43836.5242030324</v>
+      </c>
+      <c r="D6" s="0">
+        <v>43836.524228912</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2.58796296296296E-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" s="0">
+        <v>73</v>
+      </c>
+      <c r="C7" s="0">
+        <v>43836.5258499421</v>
+      </c>
+      <c r="D7" s="0">
+        <v>43836.5258767361</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2.67939814814815E-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" s="0">
+        <v>73</v>
+      </c>
+      <c r="C8" s="0">
+        <v>43836.5260577431</v>
+      </c>
+      <c r="D8" s="0">
+        <v>43836.5261094329</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5.16782407407407E-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>42</v>
+      </c>
+      <c r="B9" s="0">
+        <v>73</v>
+      </c>
+      <c r="C9" s="0">
+        <v>43836.526353044</v>
+      </c>
+      <c r="D9" s="0">
+        <v>43836.5263825116</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2.94560185185185E-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>73</v>
+      </c>
+      <c r="C10" s="0">
+        <v>43836.5268329051</v>
+      </c>
+      <c r="D10" s="0">
+        <v>43836.5268611343</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2.82291666666667E-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0">
+        <v>73</v>
+      </c>
+      <c r="C11" s="0">
+        <v>43836.5279160069</v>
+      </c>
+      <c r="D11" s="0">
+        <v>43836.5279380093</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2.19907407407407E-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0">
+        <v>73</v>
+      </c>
+      <c r="C12" s="0">
+        <v>43836.5285493403</v>
+      </c>
+      <c r="D12" s="0">
+        <v>43836.5290191435</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.000469803240740741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0">
+        <v>43836.5306107407</v>
+      </c>
+      <c r="D13" s="0">
+        <v>43836.5317710417</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.00116030092592593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0">
+        <v>43836.5319869329</v>
+      </c>
+      <c r="D14" s="0">
+        <v>43836.5331957986</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.00120886574074074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0">
+        <v>73</v>
+      </c>
+      <c r="C15" s="0">
+        <v>43836.5333047222</v>
+      </c>
+      <c r="D15" s="0">
+        <v>43836.5349861227</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.00168138888888889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0">
+        <v>43836.5350828588</v>
+      </c>
+      <c r="D16" s="0">
+        <v>43836.5351361343</v>
+      </c>
+      <c r="E16" s="0">
+        <v>5.32638888888889E-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>50</v>
+      </c>
+      <c r="B17" s="0">
+        <v>73</v>
+      </c>
+      <c r="C17" s="0">
+        <v>43836.5353505556</v>
+      </c>
+      <c r="D17" s="0">
+        <v>43836.5357089352</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.00035837962962963</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0">
+        <v>73</v>
+      </c>
+      <c r="C18" s="0">
+        <v>43836.5358009028</v>
+      </c>
+      <c r="D18" s="0">
+        <v>43836.5358991204</v>
+      </c>
+      <c r="E18" s="0">
+        <v>9.82060185185185E-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>52</v>
+      </c>
+      <c r="B19" s="0">
+        <v>73</v>
+      </c>
+      <c r="C19" s="0">
+        <v>43836.5360455208</v>
+      </c>
+      <c r="D19" s="0">
+        <v>43836.5361072454</v>
+      </c>
+      <c r="E19" s="0">
+        <v>6.1712962962963E-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>53</v>
+      </c>
+      <c r="B20" s="0">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0">
+        <v>43836.5361653356</v>
+      </c>
+      <c r="D20" s="0">
+        <v>43836.5363397569</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.000174409722222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" s="0">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0">
+        <v>43836.5373989005</v>
+      </c>
+      <c r="D21" s="0">
+        <v>43836.5402676968</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.0028687962962963</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>55</v>
+      </c>
+      <c r="B22" s="0">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0">
+        <v>43836.540337338</v>
+      </c>
+      <c r="D22" s="0">
+        <v>43836.5405914005</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.000254050925925926</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>56</v>
+      </c>
+      <c r="B23" s="0">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0">
+        <v>43836.5751126968</v>
+      </c>
+      <c r="D23" s="0">
+        <v>43836.6316874074</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.0565747106481481</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>57</v>
+      </c>
+      <c r="B24" s="0">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0">
+        <v>43836.6317567708</v>
+      </c>
+      <c r="D24" s="0">
+        <v>43836.7093224769</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.0775656944444444</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>58</v>
+      </c>
+      <c r="B25" s="0">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0">
+        <v>43836.7094543287</v>
+      </c>
+      <c r="D25" s="0">
+        <v>43836.7098433333</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.00038900462962963</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0">
+        <v>43836.7099165972</v>
+      </c>
+      <c r="D26" s="0">
+        <v>43836.7101874884</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.000270891203703704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>60</v>
+      </c>
+      <c r="B27" s="0">
+        <v>73</v>
+      </c>
+      <c r="C27" s="0">
+        <v>43836.7104283796</v>
+      </c>
+      <c r="D27" s="0">
+        <v>43836.7116334028</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.00120502314814815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>61</v>
+      </c>
+      <c r="B28" s="0">
+        <v>73</v>
+      </c>
+      <c r="C28" s="0">
+        <v>43836.7117113889</v>
+      </c>
+      <c r="D28" s="0">
+        <v>43836.7117406829</v>
+      </c>
+      <c r="E28" s="0">
+        <v>2.92939814814815E-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>62</v>
+      </c>
+      <c r="B29" s="0">
+        <v>73</v>
+      </c>
+      <c r="C29" s="0">
+        <v>43836.7117990625</v>
+      </c>
+      <c r="D29" s="0">
+        <v>43836.7120742824</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.000275208333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>63</v>
+      </c>
+      <c r="B30" s="0">
+        <v>73</v>
+      </c>
+      <c r="C30" s="0">
+        <v>43836.7121427546</v>
+      </c>
+      <c r="D30" s="0">
+        <v>43836.7141584259</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.00201565972222222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>64</v>
+      </c>
+      <c r="B31" s="0">
+        <v>73</v>
+      </c>
+      <c r="C31" s="0">
+        <v>43836.7149510069</v>
+      </c>
+      <c r="D31" s="0">
+        <v>43836.7150740972</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.000123090277777778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>65</v>
+      </c>
+      <c r="B32" s="0">
+        <v>73</v>
+      </c>
+      <c r="C32" s="0">
+        <v>43836.7151716898</v>
+      </c>
+      <c r="D32" s="0">
+        <v>43836.7152674421</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9.57523148148148E-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>66</v>
+      </c>
+      <c r="B33" s="0">
+        <v>73</v>
+      </c>
+      <c r="C33" s="0">
+        <v>43836.7154537616</v>
+      </c>
+      <c r="D33" s="0">
+        <v>43836.7161826852</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.000728912037037037</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>67</v>
+      </c>
+      <c r="B34" s="0">
+        <v>73</v>
+      </c>
+      <c r="C34" s="0">
+        <v>43836.7163547454</v>
+      </c>
+      <c r="D34" s="0">
+        <v>43836.7164427083</v>
+      </c>
+      <c r="E34" s="0">
+        <v>8.79513888888889E-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0">
+        <v>73</v>
+      </c>
+      <c r="C35" s="0">
+        <v>43836.7164957639</v>
+      </c>
+      <c r="D35" s="0">
+        <v>43836.7293747106</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.0128789351851852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>69</v>
+      </c>
+      <c r="B36" s="0">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0">
+        <v>43836.7321914583</v>
+      </c>
+      <c r="D36" s="0">
+        <v>43836.7324248148</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.000233356481481481</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>70</v>
+      </c>
+      <c r="B37" s="0">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0">
+        <v>43836.7377119676</v>
+      </c>
+      <c r="D37" s="0">
+        <v>43836.7388939468</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.00118196759259259</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>71</v>
+      </c>
+      <c r="B38" s="0">
+        <v>73</v>
+      </c>
+      <c r="C38" s="0">
+        <v>43837.4364910069</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>